--- a/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G378"/>
+  <dimension ref="A1:G381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9901,6 +9901,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>ECONOMICS:INM2</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>59268670000000</v>
+      </c>
+      <c r="D379" t="n">
+        <v>59268670000000</v>
+      </c>
+      <c r="E379" t="n">
+        <v>59268670000000</v>
+      </c>
+      <c r="F379" t="n">
+        <v>59268670000000</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>ECONOMICS:INM2</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>59525640000000</v>
+      </c>
+      <c r="D380" t="n">
+        <v>59525640000000</v>
+      </c>
+      <c r="E380" t="n">
+        <v>59525640000000</v>
+      </c>
+      <c r="F380" t="n">
+        <v>59525640000000</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>ECONOMICS:INM2</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>58797110000000</v>
+      </c>
+      <c r="D381" t="n">
+        <v>58797110000000</v>
+      </c>
+      <c r="E381" t="n">
+        <v>58797110000000</v>
+      </c>
+      <c r="F381" t="n">
+        <v>58797110000000</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
@@ -9936,16 +9936,16 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>59525640000000</v>
+        <v>58997590000000</v>
       </c>
       <c r="D380" t="n">
-        <v>59525640000000</v>
+        <v>58997590000000</v>
       </c>
       <c r="E380" t="n">
-        <v>59525640000000</v>
+        <v>58997590000000</v>
       </c>
       <c r="F380" t="n">
-        <v>59525640000000</v>
+        <v>58997590000000</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -9961,16 +9961,16 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>58797110000000</v>
+        <v>58379010000000</v>
       </c>
       <c r="D381" t="n">
-        <v>58797110000000</v>
+        <v>58379010000000</v>
       </c>
       <c r="E381" t="n">
-        <v>58797110000000</v>
+        <v>58379010000000</v>
       </c>
       <c r="F381" t="n">
-        <v>58797110000000</v>
+        <v>58379010000000</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G381"/>
+  <dimension ref="A1:G382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -9911,16 +9911,16 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>59268670000000</v>
+        <v>58962140000000</v>
       </c>
       <c r="D379" t="n">
-        <v>59268670000000</v>
+        <v>58962140000000</v>
       </c>
       <c r="E379" t="n">
-        <v>59268670000000</v>
+        <v>58962140000000</v>
       </c>
       <c r="F379" t="n">
-        <v>59268670000000</v>
+        <v>58962140000000</v>
       </c>
       <c r="G379" t="n">
         <v>0</v>
@@ -9936,16 +9936,16 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>58997590000000</v>
+        <v>58998760000000</v>
       </c>
       <c r="D380" t="n">
-        <v>58997590000000</v>
+        <v>58998760000000</v>
       </c>
       <c r="E380" t="n">
-        <v>58997590000000</v>
+        <v>58998760000000</v>
       </c>
       <c r="F380" t="n">
-        <v>58997590000000</v>
+        <v>58998760000000</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -9961,18 +9961,43 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>58379010000000</v>
+        <v>61023690000000</v>
       </c>
       <c r="D381" t="n">
-        <v>58379010000000</v>
+        <v>61023690000000</v>
       </c>
       <c r="E381" t="n">
-        <v>58379010000000</v>
+        <v>61023690000000</v>
       </c>
       <c r="F381" t="n">
-        <v>58379010000000</v>
+        <v>61023690000000</v>
       </c>
       <c r="G381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>ECONOMICS:INM2</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>58323030000000</v>
+      </c>
+      <c r="D382" t="n">
+        <v>58323030000000</v>
+      </c>
+      <c r="E382" t="n">
+        <v>58323030000000</v>
+      </c>
+      <c r="F382" t="n">
+        <v>58323030000000</v>
+      </c>
+      <c r="G382" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
@@ -9986,16 +9986,16 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>58323030000000</v>
+        <v>58330500000000</v>
       </c>
       <c r="D382" t="n">
-        <v>58323030000000</v>
+        <v>58330500000000</v>
       </c>
       <c r="E382" t="n">
-        <v>58323030000000</v>
+        <v>58330500000000</v>
       </c>
       <c r="F382" t="n">
-        <v>58323030000000</v>
+        <v>58330500000000</v>
       </c>
       <c r="G382" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G382"/>
+  <dimension ref="A1:G384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9936,16 +9936,16 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>58998760000000</v>
+        <v>59556520000000</v>
       </c>
       <c r="D380" t="n">
-        <v>58998760000000</v>
+        <v>59556520000000</v>
       </c>
       <c r="E380" t="n">
-        <v>58998760000000</v>
+        <v>59556520000000</v>
       </c>
       <c r="F380" t="n">
-        <v>58998760000000</v>
+        <v>59556520000000</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -9986,18 +9986,68 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>58330500000000</v>
+        <v>58853610000000</v>
       </c>
       <c r="D382" t="n">
-        <v>58330500000000</v>
+        <v>58853610000000</v>
       </c>
       <c r="E382" t="n">
-        <v>58330500000000</v>
+        <v>58853610000000</v>
       </c>
       <c r="F382" t="n">
-        <v>58330500000000</v>
+        <v>58853610000000</v>
       </c>
       <c r="G382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>ECONOMICS:INM2</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>58236460000000</v>
+      </c>
+      <c r="D383" t="n">
+        <v>58236460000000</v>
+      </c>
+      <c r="E383" t="n">
+        <v>58236460000000</v>
+      </c>
+      <c r="F383" t="n">
+        <v>58236460000000</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>ECONOMICS:INM2</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>58157090000000</v>
+      </c>
+      <c r="D384" t="n">
+        <v>58157090000000</v>
+      </c>
+      <c r="E384" t="n">
+        <v>58157090000000</v>
+      </c>
+      <c r="F384" t="n">
+        <v>58157090000000</v>
+      </c>
+      <c r="G384" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/India_M2.xlsx
@@ -10011,16 +10011,16 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>58236460000000</v>
+        <v>58288020000000</v>
       </c>
       <c r="D383" t="n">
-        <v>58236460000000</v>
+        <v>58288020000000</v>
       </c>
       <c r="E383" t="n">
-        <v>58236460000000</v>
+        <v>58288020000000</v>
       </c>
       <c r="F383" t="n">
-        <v>58236460000000</v>
+        <v>58288020000000</v>
       </c>
       <c r="G383" t="n">
         <v>0</v>
@@ -10036,16 +10036,16 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>58157090000000</v>
+        <v>58131050000000</v>
       </c>
       <c r="D384" t="n">
-        <v>58157090000000</v>
+        <v>58131050000000</v>
       </c>
       <c r="E384" t="n">
-        <v>58157090000000</v>
+        <v>58131050000000</v>
       </c>
       <c r="F384" t="n">
-        <v>58157090000000</v>
+        <v>58131050000000</v>
       </c>
       <c r="G384" t="n">
         <v>0</v>
